--- a/Marketing/utah.roomme.xlsx
+++ b/Marketing/utah.roomme.xlsx
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">

--- a/Marketing/utah.roomme.xlsx
+++ b/Marketing/utah.roomme.xlsx
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/utah.roomme.xlsx
+++ b/Marketing/utah.roomme.xlsx
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">

--- a/Marketing/utah.roomme.xlsx
+++ b/Marketing/utah.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>taylor_perry_133</t>
+          <t>w.w.stone_379</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jackzeller_</t>
+          <t>lucytaylerr</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ryansisonn</t>
+          <t>sierra.anne.c</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ellanic0le</t>
+          <t>victoriaboydston</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lukefordhamm</t>
+          <t>nature_moments101</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>anorton_9</t>
+          <t>ashercruz24</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dillonfarne</t>
+          <t>sam.hunterr</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ciara.a.garcia</t>
+          <t>aaron_iversonn</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>charlottegarrisonn</t>
+          <t>chasen_leblanc</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>utahyl</t>
+          <t>jessied.3</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hannah.donaldson.984</t>
+          <t>davidfleck_</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>allieesalgado</t>
+          <t>dylanladds</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lucytaylerr</t>
+          <t>schenke.d</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>thomas._.boyle</t>
+          <t>hank.gorzo</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tristan_wnn</t>
+          <t>new.to.the.u</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>eastonrulli</t>
+          <t>henrybessolo</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aqtomalee</t>
+          <t>zane_coletti</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dylin.sta</t>
+          <t>kc.l.i.n.e</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bryanhogan_</t>
+          <t>ryan_slosson</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>gavin_beichnerr</t>
+          <t>eylerjue</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>colemac29</t>
+          <t>fiona_murray10</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ashercruz24</t>
+          <t>mckellparcell</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>brooke_mead_</t>
+          <t>heatherteixeira11</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>q.wood15</t>
+          <t>tyson_udy</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>merch1e</t>
+          <t>teagan_pitts</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>michaelgeovjian</t>
+          <t>slime_please543</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lucyyskiles</t>
+          <t>eli.huskey</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cole_wolfinger</t>
+          <t>ahc520</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>davidkennnett</t>
+          <t>lukefordhamm</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>gonzalogaarciaaa</t>
+          <t>lukeeskinner</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>reina_bomberski</t>
+          <t>annahamilton_</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>kennedy_schoennauer</t>
+          <t>noahwilson217</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>zane_coletti</t>
+          <t>mindy.philips</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sssofiafernandezz_</t>
+          <t>utah.confessions</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>_josephmarshall</t>
+          <t>kianayely</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>_ccj.rutkowski</t>
+          <t>jenn.pirozzi</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lilyy.hughes</t>
+          <t>sylvialeycadwell</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hannahdickie_</t>
+          <t>zacmoulios</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>rysenmartin</t>
+          <t>maddiemeacham</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mollyyb_</t>
+          <t>ashlyn.gormick</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,2007 +848,2007 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>_elle.d._</t>
+          <t>jaredweeksss</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>enzo.hamlin</t>
+          <t>alesioliujh</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>_owenwhaley_</t>
+          <t>siena.hanson</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>babyface.tkl</t>
+          <t>lily.enos</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>avery_hendries</t>
+          <t>charlie_weyerhaeuser</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jack_riley_1</t>
+          <t>max._.kennedy</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ggabrielleleonard</t>
+          <t>sssofiafernandezz_</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>luke_slutzky</t>
+          <t>averyzrno</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>eli.huskey</t>
+          <t>alexalemerise</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sofeluz</t>
+          <t>aspen_jackson_</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mayur.rathod01</t>
+          <t>danelychacon</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jacqueskhoriaty</t>
+          <t>west0ver_d</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>jefferyparra48</t>
+          <t>katebryn20</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ethan_kilpatric</t>
+          <t>sammy_climbs</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>allie_somee</t>
+          <t>kkyleebrooks</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>aden._.2005</t>
+          <t>luckylrj17</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>emily_burnap</t>
+          <t>kevinasanchez_</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>annahamilton_</t>
+          <t>parkerledterman</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nicochastenet</t>
+          <t>brooke_mead_</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bethmatsonn</t>
+          <t>justinthome8</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>will0verte</t>
+          <t>avawarrenn</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ojguy08</t>
+          <t>tylerfferguson</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>angie.nelsonn</t>
+          <t>coopermacbeth</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>vantronquinnerly</t>
+          <t>penny.steadman_</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>jfm341815</t>
+          <t>fw0990</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>kaden_poore</t>
+          <t>jacobpawlusiewicz1221</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>benhipona</t>
+          <t>ryansisonn</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>west0ver_d</t>
+          <t>abbienels</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jerry_speicher</t>
+          <t>aneena.clinger</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>kassidy_lynch</t>
+          <t>drew_gilbertson</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sofiasheneman</t>
+          <t>ryan.t0dd_</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rex_arnot</t>
+          <t>v.h_tthu</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hannah._anderson</t>
+          <t>hawkins.blakely</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>kristyault247</t>
+          <t>ssophiajimenezz</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>jackk.herick</t>
+          <t>jtrnb4</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>unimaeng</t>
+          <t>clay27.h</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>adamvogel4</t>
+          <t>nicochastenet</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>chloe_taylor22195</t>
+          <t>jackk.herick</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cheyenne_rowe_</t>
+          <t>sam.moten</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>nickgeiser_</t>
+          <t>kirk.wes</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>maddie.westover</t>
+          <t>_.a.nnagrace</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>blake_mitchell053</t>
+          <t>ethan_kilpatric</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>luke__cook</t>
+          <t>jake_weltmann</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>chasemwatts</t>
+          <t>lily_koehn</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>kamack12</t>
+          <t>avery.macmillan</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>natalieruthford</t>
+          <t>ggabrielleleonard</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>caroline_m12345</t>
+          <t>trent_steiner11</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>owenparrish__</t>
+          <t>sebastiannkeene</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ashlenhancock</t>
+          <t>char.kosinski</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>_brooklynscales</t>
+          <t>owenparrish__</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>michaelfbeattie</t>
+          <t>eschmitty0</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>utahphisigmarho</t>
+          <t>hunter.banning</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>imowentaylor</t>
+          <t>isaac_2049</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kylee.sewell</t>
+          <t>evan.fornander</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>hogan21smith</t>
+          <t>eastonrulli</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>jaden_.2._</t>
+          <t>maddie__garcia</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>bradybeland</t>
+          <t>inathanl_l</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>801rage</t>
+          <t>dana.suttle</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>colec.ox</t>
+          <t>austinnhughes</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>eugeniaspanospano</t>
+          <t>caden.brownell</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>kc.l.i.n.e</t>
+          <t>kalmyers_</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>noraa.mae</t>
+          <t>thejeffroberts</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>adalinehuhmann</t>
+          <t>lilyy.hughes</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>spence.krueger</t>
+          <t>livmastalerz</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>elliott.gold</t>
+          <t>sami.bisseyy</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>jordan.urias</t>
+          <t>logan_eli04</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>fatima_lqm</t>
+          <t>hysterical_grace</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>heidi.bertt</t>
+          <t>mitch_schouten</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>jordanschmitz88</t>
+          <t>colemac29</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>coristoutenburg</t>
+          <t>aj_riopelle</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>evan_vanbrocklin</t>
+          <t>kendallskyem</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t.yler.d.u17</t>
+          <t>evaneschbach</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>brookep116</t>
+          <t>evanrylancee</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ryan.t0dd_</t>
+          <t>nathanlysen</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>utah.confessions</t>
+          <t>samueldyrr</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>brendan4thornton</t>
+          <t>badenpaterson_</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>saramiguezmcinerney</t>
+          <t>riley_ding05</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>peacelovensunnydays</t>
+          <t>bradytkachuk999</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>camrynpendergrast</t>
+          <t>a.ivanjack</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>emmadigenan</t>
+          <t>mekhi.gee</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mike_gaston1290</t>
+          <t>charliegerut</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>clharper</t>
+          <t>abbiegutierrezzz</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>abbeymillum</t>
+          <t>avery__carlin</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>teagan_pitts</t>
+          <t>cassidycbriggs</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>unionuofu</t>
+          <t>sophiewojcicki</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>margiemmcknight</t>
+          <t>jacksonhbaker</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>jaredweeksss</t>
+          <t>kris24_57</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>lrichyyy</t>
+          <t>anthony.laciura</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>matei3660</t>
+          <t>jaden_.2._</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>jake.suchowski</t>
+          <t>briggsmarquis_</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ryley.mcdennon</t>
+          <t>sammyzeller</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>omphalophobia.0</t>
+          <t>becca.a.newman</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>rachaellhaerter</t>
+          <t>averyyadamssss</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>jacobpawlusiewicz1221</t>
+          <t>carey_molter</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ananya_cute456</t>
+          <t>melissa_peterson.24</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ryleigh.freman</t>
+          <t>hogan21smith</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>alex_enard04</t>
+          <t>karissaphipps</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>w.w.stone_379</t>
+          <t>joshbreer</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jackendler</t>
+          <t>ryleigh.freman</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>marcellaafisher</t>
+          <t>ryanhamerman</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>mereklafave1</t>
+          <t>aj_mcclary</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>emmawaltonn</t>
+          <t>nathanacarlson</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>couldbelucas</t>
+          <t>leo_panini</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>stilesdichter</t>
+          <t>zoemwallace</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>canyon.pebs</t>
+          <t>lukehbrooks</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>hank.gorzo</t>
+          <t>shraderstupid</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>emmavuckovic_</t>
+          <t>delaurentis.cody_</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>parkerledterman</t>
+          <t>asia.christiana</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tylerfferguson</t>
+          <t>wyatt_spalding_</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ruby.poland22</t>
+          <t>vin_xe</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>christinadelg</t>
+          <t>__ice_cup_</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>jackhelm</t>
+          <t>ethan._simmons</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>lena.gardner04</t>
+          <t>nathaniel.elbaum</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>caliiidillonnn</t>
+          <t>_josephmarshall</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>poseidon3317331</t>
+          <t>justin_cho1121</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>beckamlinton</t>
+          <t>lauren.sherlockk</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>lily.enos</t>
+          <t>sierraaturner</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>casen.wilcox</t>
+          <t>dlpeterson516</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ivuofu</t>
+          <t>kennny.web</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>_patrickmcdermott_</t>
+          <t>ojguy08</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>shanbrunelli</t>
+          <t>drew.c21</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>riley_ding05</t>
+          <t>stella.purnhagen</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>lukesganga</t>
+          <t>luke_meyer05</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>liv_herlinger32008</t>
+          <t>natalieruthford</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ellasorensen_</t>
+          <t>_ellie_carson_</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>dylanladds</t>
+          <t>nate__cunningham</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>siennagarnica</t>
+          <t>_chrismilne_</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>izzypullis</t>
+          <t>_juan_ava</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>averyyadamssss</t>
+          <t>jpschlegel01</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>becca.a.newman</t>
+          <t>rook.zeller</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>drew.c21</t>
+          <t>joebiesinger</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>sammyzeller</t>
+          <t>genetdahl</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>higgins.jp</t>
+          <t>fatima_lqm</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>nylabrunelli</t>
+          <t>quinn.fitzpatrick4</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>jenn.pirozzi</t>
+          <t>regansimmers</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>_gagehawkes_</t>
+          <t>jordanschmitz88</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>alex.dav1dson</t>
+          <t>bby.riya</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>taliaxsilva</t>
+          <t>z00zzz00z</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>_lolascrafts</t>
+          <t>joseph__nicholson</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>tristan_nelson0</t>
+          <t>laurenmarshh_</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>taylorkate19</t>
+          <t>colinmartinnn</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>_jackryan4</t>
+          <t>molly.scriven</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>rylinsekas</t>
+          <t>clara.slatter</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>kianayely</t>
+          <t>aliya.hatch</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>maya.drayton_</t>
+          <t>_alyssa_perun_</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>aj_mcclary</t>
+          <t>ryley.mcdennon</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>matt.sebahar</t>
+          <t>bellevakauta</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>logan_eli04</t>
+          <t>shane._.hill</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>hannahhmaddox</t>
+          <t>brookestearnss</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>lakencoulson23</t>
+          <t>judebush</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>keeganmcbride33</t>
+          <t>_avajohnson8</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>aaron_iversonn</t>
+          <t>koensakamoto</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>elijahmann5695</t>
+          <t>k3nton</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>miaapetersen</t>
+          <t>johnny.delong</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>johnmartinpeltier</t>
+          <t>loganvu</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>new.to.the.u</t>
+          <t>shannon.c.jimenez</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>kennny.web</t>
+          <t>_elle.d._</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>tyreicus_</t>
+          <t>alex.garcia15</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>jeffery_payan</t>
+          <t>adamvogel4</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>_jacobsteinberg_</t>
+          <t>jeffery_payan</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ashlyn.hannaa</t>
+          <t>heyitsnatash</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>matthew.timpa</t>
+          <t>frankie_iv</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>runge699</t>
+          <t>haydenhogandoria</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>whit_a_smith</t>
+          <t>jackieclemente_</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sa_ed1844</t>
+          <t>chloeinmann</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>evaneschbach</t>
+          <t>margiemmcknight</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>owen.k_13</t>
+          <t>niyawestt</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>atoth04</t>
+          <t>dean.ashley13</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>_ellie_carson_</t>
+          <t>reilly.curry</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>caydengravlin</t>
+          <t>gonzalogaarciaaa</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ayden.a.miller</t>
+          <t>christoveran</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>quinn.haggarty</t>
+          <t>daschspringmeyer</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jocelyn_ruth_</t>
+          <t>brock_elliff</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>jack._.leoni</t>
+          <t>ianatorawesome6</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>karleeenelson</t>
+          <t>rygismo</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>jennldavis_</t>
+          <t>michaelgeovjian</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>garrettatkins_</t>
+          <t>spuki.luki</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>jane.b0ck</t>
+          <t>jackzeller_</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>wyatt_bounds_</t>
+          <t>rygrom</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>chuqster</t>
+          <t>cade.mock</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>crawfordlatkovic</t>
+          <t>bryson.raader</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>eva.newmann</t>
+          <t>emryy.pendergrass</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>lukas.s0ch0r</t>
+          <t>hannahdickie_</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>olivia.berrett</t>
+          <t>alex.gehrke</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>haleyschmuhl</t>
+          <t>noah.woodfors</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>reed.damico</t>
+          <t>seb_j_c17</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>elena.messner</t>
+          <t>cobb_kuntz</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>briggsmarquis_</t>
+          <t>kristyault247</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>tonylxckey</t>
+          <t>porter_hanson</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>mckenna.nealll</t>
+          <t>johnmartinpeltier</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>emmagillbank</t>
+          <t>perla.pingston</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>tyler_woolley05</t>
+          <t>wheygolden.retriever</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>_lukerrobinson</t>
+          <t>katiebaugh686</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>_juan_ava</t>
+          <t>kylie_757</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>grahegs_</t>
+          <t>caroline_m12345</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>kaylee.jackson67</t>
+          <t>taylorkate19</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>brqqks</t>
+          <t>reeseboydd</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>jrig_4</t>
+          <t>ryantownhill</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>delaneyagallagher</t>
+          <t>jenna.welle</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>brookelapinski</t>
+          <t>elliott.gold</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>tyler.kirkman23</t>
+          <t>ava.birchmier</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>kkyleebrooks</t>
+          <t>cadden.andrew</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ella_whitney4</t>
+          <t>jill.batttistta</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>andrewknowl3s</t>
+          <t>kaden.tsukamoto</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>noah_zucker</t>
+          <t>peacelovensunnydays</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>brynna.davis</t>
+          <t>taylor_perry_133</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>rohansiddam</t>
+          <t>korean_kaj_16</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>dylan.melchior</t>
+          <t>colbyschoenborn</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>bby.riya</t>
+          <t>cole_sexton2</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ryan_slosson</t>
+          <t>haase_05</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ian_grogan</t>
+          <t>utahyl</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>abbyhighfield</t>
+          <t>aonavausmc</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>justin_cho1121</t>
+          <t>averybrynnephillips</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>xavi_boi</t>
+          <t>kylee.sewell</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>spencerr.waldronn</t>
+          <t>lily_.autumn</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>maddiemeacham</t>
+          <t>caydengravlin</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>sweatyriders</t>
+          <t>lucaso0309</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>kirk.wes</t>
+          <t>dylan.melchior</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>avery__carlin</t>
+          <t>ethanb1016</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>charliegerut</t>
+          <t>ryanmagnani</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ratacted</t>
+          <t>sophieseyboldd</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>madisynmchenry</t>
+          <t>amy.marie.greer</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>leviticrip</t>
+          <t>tateturner</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>mark_gonzalez1234</t>
+          <t>emmadigenan</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>_lexihalll</t>
+          <t>jfm341815</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>eva__frey</t>
+          <t>keeganmcbride33</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>matthewg.uthrie</t>
+          <t>lukeoneill2</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ellie_._king</t>
+          <t>carolinemendez_</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>__bananahead</t>
+          <t>blake_mitchell053</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>cstew05</t>
+          <t>drewmyerss</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>max.terranova</t>
+          <t>runge699</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>whitney_klearman</t>
+          <t>bo.swenke</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>millerpeterson</t>
+          <t>evancavalierr</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>carsonsutt</t>
+          <t>joeymaz0</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>shanepeterson__</t>
+          <t>chloe_taylor22195</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>syd_henneberg</t>
+          <t>mark_gonzalez1234</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>frankgiarratano</t>
+          <t>ryan_fischer05</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>makayla_harding27</t>
+          <t>drakethompsonn</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>liam_carolan16</t>
+          <t>nylabrunelli</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>nickwanke13</t>
+          <t>samhjohnson04</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>katie.mackowiak</t>
+          <t>delaneyagallagher</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>emmett_young12</t>
+          <t>cameron_n_ford</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>sierra.cooperrr</t>
+          <t>higgins.jp</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>nate_luthy</t>
+          <t>larrrue</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ryanstocam88</t>
+          <t>elliot.dresser</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>dylanryandavis</t>
+          <t>lfagan04</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>upc.fab</t>
+          <t>itskarin.h</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>gaby16m</t>
+          <t>jessicaschlamkowitz</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>char_bauc</t>
+          <t>_gabriella_sm_</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>andreas.moustakas</t>
+          <t>avery_hendries</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ellacarver5</t>
+          <t>stilesdichter</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>deltasigutah</t>
+          <t>logan_kobliska</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>chaddydaddy_69_</t>
+          <t>jkswim1</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>doughawkins8</t>
+          <t>_jacobsteinberg_</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>jociellie</t>
+          <t>alex.dav1dson</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>meadowsreid</t>
+          <t>rracette27</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>liamhunter_9</t>
+          <t>kyler____m</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>lilyy.rae</t>
+          <t>jackbunting_</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>hudsonpatsch</t>
+          <t>jennldavis_</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>_dor.man_</t>
+          <t>kefaabakuki</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6s7wuisjbbzbznzjzuiiro</t>
+          <t>atoth04</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>__emyllesilva__</t>
+          <t>oakley_cowboy_doodles</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>notjamesobrien</t>
+          <t>jakeambris</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>scotlynn.potter</t>
+          <t>ella_whitney4</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>kadenkarstens</t>
+          <t>scarlett.hager</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>masonmarchlik</t>
+          <t>sophieggriffiin</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>lila_phil</t>
+          <t>canyon.pebs</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>alesioliujh</t>
+          <t>grace.dozer</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>tylermangoldd</t>
+          <t>huytrn.n</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>jandi_ellison</t>
+          <t>miaapetersen</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>harken.g</t>
+          <t>eli_schmaltz</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>av3rygill</t>
+          <t>coristoutenburg</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>taylorrjohnsonnn</t>
+          <t>jackendler</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>christoveran</t>
+          <t>kyle_fehrenbach</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>camilaautoforzamotors</t>
+          <t>joel.tucker__</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>jakezan7</t>
+          <t>taylor.greemann</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>lizamturner</t>
+          <t>rilee.bryn18</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>fernandar44</t>
+          <t>youngnicholas08</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>danielmontano333</t>
+          <t>owenmatherr</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>max_rabin_</t>
+          <t>zackaryzaman</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>sarahdoughertyyy</t>
+          <t>chase.muirbrook</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ridge_hughes</t>
+          <t>mac__richardson</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>_cole_murphy</t>
+          <t>dana_dvorak_</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>zclevin</t>
+          <t>rubyjjameson</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>sophieggriffiin</t>
+          <t>reina_bomberski</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>lucyallison1</t>
+          <t>emma.efg3</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>grace.khamo</t>
+          <t>jjackbenton</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>elizabeth_gantner7</t>
+          <t>paytonriske</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>nathanacarlson</t>
+          <t>lukas.s0ch0r</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>luciihill</t>
+          <t>levi.iskin</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>sadiegallagherrr</t>
+          <t>imowentaylor</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>alecweb45</t>
+          <t>_charliemcleod</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>korimckeever</t>
+          <t>sa.ge5330</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>zachdillard8</t>
+          <t>headhunter500</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>jake.solberg</t>
+          <t>madisonmurad</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>alex.taay</t>
+          <t>myliealexander</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>jake_ryan282</t>
+          <t>nickkalberer_</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>marisamarquez_</t>
+          <t>couldbelucas</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>carleybiggar</t>
+          <t>emmavuckovic_</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>maddie_doyle7</t>
+          <t>maya.drayton_</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>niyawestt</t>
+          <t>joliee.peek</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>joseph__nicholson</t>
+          <t>twetz</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>brock_elliff</t>
+          <t>christian.t.howell</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>averyzrno</t>
+          <t>hannah._.hudson</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>katelyn.brinda</t>
+          <t>clharper</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>mindy.philips</t>
+          <t>allieesalgado</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>gavinlowell2005</t>
+          <t>jack.felix_</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>jack_halllllll</t>
+          <t>sylvie_mcevers</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>hysterical_grace</t>
+          <t>landon_santos</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ssophiajimenezz</t>
+          <t>raunaqkap</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>jackieclemente_</t>
+          <t>lilylusch</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>jacksonhbaker</t>
+          <t>katieahl.1</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>siena.hanson</t>
+          <t>chancej_13</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>cragurt</t>
+          <t>heidi.bertt</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>sammy_climbs</t>
+          <t>garrettatkins_</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>jpschlegel01</t>
+          <t>mikeyboy5252</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>victoriaboydston</t>
+          <t>ythan.houston</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>yanggang05</t>
+          <t>thomas._.boyle</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>sam.hunterr</t>
+          <t>jack_halllllll</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>hernandezmelani737</t>
+          <t>zac.rasnick</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>mekhi.gee</t>
+          <t>b_porter04</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>colbyschoenborn</t>
+          <t>calvindornan</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>madelinejfrancis</t>
+          <t>gabi0lmos</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>koensakamoto</t>
+          <t>lena.gardner04</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>sydneyroughen</t>
+          <t>rex_arnot</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>aliya.hatch</t>
+          <t>laurenisnotlame</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>jakeambris</t>
+          <t>chase_martin4</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,600 +4118,10 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>bird_wid_da_pizza</t>
+          <t>chasemwatts</t>
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>maximus_metzgen</t>
-        </is>
-      </c>
-      <c r="B370" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>candace.wilund</t>
-        </is>
-      </c>
-      <c r="B371" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>mac__richardson</t>
-        </is>
-      </c>
-      <c r="B372" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>samueldyrr</t>
-        </is>
-      </c>
-      <c r="B373" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>carey_molter</t>
-        </is>
-      </c>
-      <c r="B374" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>nerea.whitaker</t>
-        </is>
-      </c>
-      <c r="B375" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>raquelfrankel</t>
-        </is>
-      </c>
-      <c r="B376" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>mconlancyc</t>
-        </is>
-      </c>
-      <c r="B377" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>josephvansickle</t>
-        </is>
-      </c>
-      <c r="B378" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>milestrotter</t>
-        </is>
-      </c>
-      <c r="B379" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>johnnystanzione</t>
-        </is>
-      </c>
-      <c r="B380" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>kalmyers_</t>
-        </is>
-      </c>
-      <c r="B381" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>isaac_2049</t>
-        </is>
-      </c>
-      <c r="B382" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>korean_kaj_16</t>
-        </is>
-      </c>
-      <c r="B383" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>aspen_jackson_</t>
-        </is>
-      </c>
-      <c r="B384" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>spencersouter</t>
-        </is>
-      </c>
-      <c r="B385" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>b_porter04</t>
-        </is>
-      </c>
-      <c r="B386" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>cassali2</t>
-        </is>
-      </c>
-      <c r="B387" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>ryan_fischer05</t>
-        </is>
-      </c>
-      <c r="B388" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>dana.suttle</t>
-        </is>
-      </c>
-      <c r="B389" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>headhunter500</t>
-        </is>
-      </c>
-      <c r="B390" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>zachschwab11</t>
-        </is>
-      </c>
-      <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>ppolinaag</t>
-        </is>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>seb_j_c17</t>
-        </is>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>melissa_peterson.24</t>
-        </is>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>ryanhamerman</t>
-        </is>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>briantrujillo14</t>
-        </is>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>ally_andrea14</t>
-        </is>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>bennsiegel_</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>reeseboydd</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>_avajohnson8</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>___white.rice___</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>tyson_udy</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>dkraus229</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>justin_sc0tt</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>drew.alzona</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>colton_knotts</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>heyitsnatash</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>lilly_jane1405</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>ash.brayton</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>evancavalierr</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>lucy.peifer</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>clay27.h</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>qsakelaris</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>abbiegutierrezzz</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>abbykleasure</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>sylvialeycadwell</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>kimberleecrane2019</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>mattnnguyen_</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>torres.dawson</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>inathanl_l</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>jaunjvv</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>jj_polarek</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>jill.batttistta</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>lily_koehn</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>rayacsmith</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>reilly.curry</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>sam.moten</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>robby_wiens</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/utah.roomme.xlsx
+++ b/Marketing/utah.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>w.w.stone_379</t>
+          <t>colton.hintz1</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lucytaylerr</t>
+          <t>alijamalzahi46</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sierra.anne.c</t>
+          <t>ashlynschulzz</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>victoriaboydston</t>
+          <t>alexpauldine</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nature_moments101</t>
+          <t>_lexihalll</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ashercruz24</t>
+          <t>christian.tiera</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sam.hunterr</t>
+          <t>mohamadomar.j1367</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>aaron_iversonn</t>
+          <t>elliott.gold</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>chasen_leblanc</t>
+          <t>briggsmarquis_</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jessied.3</t>
+          <t>cameron_harris3</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>davidfleck_</t>
+          <t>jimmerhopkins_ski</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dylanladds</t>
+          <t>makennaclemmer</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schenke.d</t>
+          <t>alexglover5841</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hank.gorzo</t>
+          <t>jack.clanton</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>new.to.the.u</t>
+          <t>charlie_weyerhaeuser</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>henrybessolo</t>
+          <t>ethan.arrington</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>zane_coletti</t>
+          <t>thkuanne_fernanda</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>kc.l.i.n.e</t>
+          <t>mcurtiss4</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ryan_slosson</t>
+          <t>leser02</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>eylerjue</t>
+          <t>ridge_hughes</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fiona_murray10</t>
+          <t>claudiavanderveen</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mckellparcell</t>
+          <t>allison_rose_harris</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>heatherteixeira11</t>
+          <t>_samantha_gonzales__</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tyson_udy</t>
+          <t>itsjakemueller</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>teagan_pitts</t>
+          <t>bergen_18_d</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>slime_please543</t>
+          <t>brookehildrethh</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>eli.huskey</t>
+          <t>emmett.shinn</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ahc520</t>
+          <t>sureshparmar9447</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lukefordhamm</t>
+          <t>jamess_witherss</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>lukeeskinner</t>
+          <t>liliana_jean04</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>annahamilton_</t>
+          <t>calvin_birkhauser</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>noahwilson217</t>
+          <t>afton.fell</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mindy.philips</t>
+          <t>jt__lop</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>utah.confessions</t>
+          <t>aaronkop.p.jr</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>kianayely</t>
+          <t>abby.fieldd</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jenn.pirozzi</t>
+          <t>tkoc.juide</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sylvialeycadwell</t>
+          <t>_jadeluther</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>zacmoulios</t>
+          <t>rockytjoy</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>maddiemeacham</t>
+          <t>megyenish</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ashlyn.gormick</t>
+          <t>_nicolemerhi_</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,907 +848,907 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>jaredweeksss</t>
+          <t>_calebrownlee</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>alesioliujh</t>
+          <t>leah.simetz</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>siena.hanson</t>
+          <t>_sophiamorse</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lily.enos</t>
+          <t>cymitchell796</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>charlie_weyerhaeuser</t>
+          <t>jessicaasu</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>max._.kennedy</t>
+          <t>dean.ashley13</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sssofiafernandezz_</t>
+          <t>mason.mautino</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>averyzrno</t>
+          <t>lexi.eads</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>alexalemerise</t>
+          <t>anjabergerson</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>aspen_jackson_</t>
+          <t>tristan_nelson0</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>danelychacon</t>
+          <t>chiiarocciaa</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>west0ver_d</t>
+          <t>magicalmomentsutah</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>katebryn20</t>
+          <t>levi.iskin</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sammy_climbs</t>
+          <t>mateo.b.34</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>kkyleebrooks</t>
+          <t>shrini_raman</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>luckylrj17</t>
+          <t>kayla.caskie</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>kevinasanchez_</t>
+          <t>merch1e</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>parkerledterman</t>
+          <t>bb.stull</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>brooke_mead_</t>
+          <t>sherdbear</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>justinthome8</t>
+          <t>tegankeubanks</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>avawarrenn</t>
+          <t>peacelovensunnydays</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tylerfferguson</t>
+          <t>badenpaterson_</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>coopermacbeth</t>
+          <t>gracieehhudson</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>penny.steadman_</t>
+          <t>v_fv9</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>fw0990</t>
+          <t>natalieb_bug</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>jacobpawlusiewicz1221</t>
+          <t>annie.govee</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ryansisonn</t>
+          <t>joeyjewel_</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>abbienels</t>
+          <t>makennareiter</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>aneena.clinger</t>
+          <t>mdhm77742</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>drew_gilbertson</t>
+          <t>gary.zehrbach</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ryan.t0dd_</t>
+          <t>alex.farler</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>v.h_tthu</t>
+          <t>sam.philbrick</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>hawkins.blakely</t>
+          <t>sarah_carolina345</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ssophiajimenezz</t>
+          <t>ryansisonn</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>jtrnb4</t>
+          <t>aleahh.grace</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>clay27.h</t>
+          <t>jenni_ferwilliam21</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>nicochastenet</t>
+          <t>spencerferries</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>jackk.herick</t>
+          <t>jada.abed</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sam.moten</t>
+          <t>liamyanosy</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>kirk.wes</t>
+          <t>sydneypetrikk</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>_.a.nnagrace</t>
+          <t>gyll_sampson19</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ethan_kilpatric</t>
+          <t>grace.khamo</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>jake_weltmann</t>
+          <t>anders_bensch</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>lily_koehn</t>
+          <t>grwimberg</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>avery.macmillan</t>
+          <t>trey.moore8</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ggabrielleleonard</t>
+          <t>kennynaz2004</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>trent_steiner11</t>
+          <t>loganfilidei</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sebastiannkeene</t>
+          <t>philipjfick</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>char.kosinski</t>
+          <t>christian.t.howell</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>owenparrish__</t>
+          <t>clay27.h</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>eschmitty0</t>
+          <t>fletchertfitz</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>hunter.banning</t>
+          <t>christianskanson</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>isaac_2049</t>
+          <t>lylaa_jane</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>evan.fornander</t>
+          <t>kennedymartinez8</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>eastonrulli</t>
+          <t>ken.zflynn</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>maddie__garcia</t>
+          <t>arie_anna19</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>inathanl_l</t>
+          <t>agge62518</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>dana.suttle</t>
+          <t>egues_gabrielaa</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>austinnhughes</t>
+          <t>cole_wolfinger</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>caden.brownell</t>
+          <t>ben.wiener</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>kalmyers_</t>
+          <t>eleanor.2005_</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>thejeffroberts</t>
+          <t>brady.eddings</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>lilyy.hughes</t>
+          <t>renee_rubty</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>livmastalerz</t>
+          <t>josh.mallers</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sami.bisseyy</t>
+          <t>erica.gonzz_</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>logan_eli04</t>
+          <t>avakjohnson20</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>hysterical_grace</t>
+          <t>avawarrenn</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mitch_schouten</t>
+          <t>kayliekown</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>colemac29</t>
+          <t>christian.s.15</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>aj_riopelle</t>
+          <t>sam.bosse_</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>kendallskyem</t>
+          <t>willy.takash</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>evaneschbach</t>
+          <t>mikesatriasarwono</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>evanrylancee</t>
+          <t>ruby.hollis</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>nathanlysen</t>
+          <t>khyberjs13</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>samueldyrr</t>
+          <t>hannahdickie_</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>badenpaterson_</t>
+          <t>tiffini49</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>riley_ding05</t>
+          <t>liamfarrelllll</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>bradytkachuk999</t>
+          <t>addisoncreson</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>a.ivanjack</t>
+          <t>todd.steffler</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>mekhi.gee</t>
+          <t>lola.grace.ross</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>charliegerut</t>
+          <t>nevaehjeann</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>abbiegutierrezzz</t>
+          <t>daxtonbush</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>avery__carlin</t>
+          <t>sophie_wirrick</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cassidycbriggs</t>
+          <t>leothompson735</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>sophiewojcicki</t>
+          <t>hannahlaurensnyder</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>jacksonhbaker</t>
+          <t>addigarland</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>kris24_57</t>
+          <t>dmwarman</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>anthony.laciura</t>
+          <t>davidfleck_</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jaden_.2._</t>
+          <t>halliespanos</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>briggsmarquis_</t>
+          <t>harperqbrace</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sammyzeller</t>
+          <t>chloesteelewright</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>becca.a.newman</t>
+          <t>uofulinguistics</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>averyyadamssss</t>
+          <t>gcoletti05_</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>carey_molter</t>
+          <t>elenaa.evanss</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>melissa_peterson.24</t>
+          <t>av3rygill</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>hogan21smith</t>
+          <t>ahorani_4035</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>karissaphipps</t>
+          <t>evacorreaaa</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>joshbreer</t>
+          <t>ronnnie_mgmt</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ryleigh.freman</t>
+          <t>ansh_darsshn</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ryanhamerman</t>
+          <t>fr.ancesca5053</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>aj_mcclary</t>
+          <t>scarlettclarkk</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>nathanacarlson</t>
+          <t>ryan.bock_</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>leo_panini</t>
+          <t>dawson_sarner</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>zoemwallace</t>
+          <t>bladegathers</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>lukehbrooks</t>
+          <t>jjennaboatmann</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>shraderstupid</t>
+          <t>bennsiegel_</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>delaurentis.cody_</t>
+          <t>cade_faulkner</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>asia.christiana</t>
+          <t>_josiebieter_</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>wyatt_spalding_</t>
+          <t>zoe.sonoma</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>vin_xe</t>
+          <t>blakerutter</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>__ice_cup_</t>
+          <t>cdiluigi</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ethan._simmons</t>
+          <t>averycatheyy</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>nathaniel.elbaum</t>
+          <t>helen_brown_01</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>_josephmarshall</t>
+          <t>alex_enard04</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>justin_cho1121</t>
+          <t>avagnewman</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>lauren.sherlockk</t>
+          <t>therealgsu</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>sierraaturner</t>
+          <t>jonas_frosth</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>dlpeterson516</t>
+          <t>charlottemilin_</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>kennny.web</t>
+          <t>sidneykreig</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ojguy08</t>
+          <t>jackmontgmry</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>drew.c21</t>
+          <t>ethanagriffin9</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>stella.purnhagen</t>
+          <t>char_bauc</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>luke_meyer05</t>
+          <t>breya_burton</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>natalieruthford</t>
+          <t>bethfrolik_</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>_ellie_carson_</t>
+          <t>heyitsnatash</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>nate__cunningham</t>
+          <t>_chrismilne_</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>_chrismilne_</t>
+          <t>aodenweller</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>_juan_ava</t>
+          <t>jack.kerrigann</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>jpschlegel01</t>
+          <t>ellies.h__</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>rook.zeller</t>
+          <t>michmischley</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>joebiesinger</t>
+          <t>naacp_uofutah_</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>genetdahl</t>
+          <t>jakeambris</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>fatima_lqm</t>
+          <t>s.grnb</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>quinn.fitzpatrick4</t>
+          <t>mattnnguyen_</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>regansimmers</t>
+          <t>maya.ouellett</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>jordanschmitz88</t>
+          <t>cooperbost</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>bby.riya</t>
+          <t>christoveran</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>z00zzz00z</t>
+          <t>cole_.francis</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>joseph__nicholson</t>
+          <t>tipsdemam</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>laurenmarshh_</t>
+          <t>jennarkrae</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>colinmartinnn</t>
+          <t>anabellefrazier</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>molly.scriven</t>
+          <t>sienna.malen</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>clara.slatter</t>
+          <t>liam_mcinerney</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>aliya.hatch</t>
+          <t>katie.mittelstadt</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>_alyssa_perun_</t>
+          <t>leane.steyn</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ryley.mcdennon</t>
+          <t>chase.muirbrook</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>bellevakauta</t>
+          <t>mollyyyburns</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>shane._.hill</t>
+          <t>jacksonbuis_</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>brookestearnss</t>
+          <t>ryan_slosson</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>judebush</t>
+          <t>ryan_pirozzi</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>_avajohnson8</t>
+          <t>alecweb45</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>koensakamoto</t>
+          <t>hannah_flagg</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>k3nton</t>
+          <t>jack.felix_</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>johnny.delong</t>
+          <t>williamroyer2</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>loganvu</t>
+          <t>ayden.a.miller</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>shannon.c.jimenez</t>
+          <t>leviticrip</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>_elle.d._</t>
+          <t>mia.r_m</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>alex.garcia15</t>
+          <t>sorrell.rubin</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>adamvogel4</t>
+          <t>bryanhogan_</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>jeffery_payan</t>
+          <t>summer.5102</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>heyitsnatash</t>
+          <t>sophiewaterstradt</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>frankie_iv</t>
+          <t>ronnie.d_</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>haydenhogandoria</t>
+          <t>wangari_macheru</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>jackieclemente_</t>
+          <t>jacob_steinberger</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>chloeinmann</t>
+          <t>chaser_armstrong</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>margiemmcknight</t>
+          <t>bradyclemmer</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>niyawestt</t>
+          <t>colinwallace__</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>dean.ashley13</t>
+          <t>copenhaverchristina</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>reilly.curry</t>
+          <t>lifeisingoodshape717</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>gonzalogaarciaaa</t>
+          <t>giselle.jenkins</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>christoveran</t>
+          <t>macimonaghan</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>daschspringmeyer</t>
+          <t>madisonlcurtis</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>brock_elliff</t>
+          <t>caroline_m12345</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ianatorawesome6</t>
+          <t>katelyn.sumnerr</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>rygismo</t>
+          <t>ryann.parkk</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>michaelgeovjian</t>
+          <t>elledenlea</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>spuki.luki</t>
+          <t>paytonkovanda</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>jackzeller_</t>
+          <t>joeymaz0</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>rygrom</t>
+          <t>gracebirnie</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>cade.mock</t>
+          <t>gracebowler</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>bryson.raader</t>
+          <t>katjaagarzoli</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>emryy.pendergrass</t>
+          <t>thornton330j</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>hannahdickie_</t>
+          <t>annahhhansen</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>alex.gehrke</t>
+          <t>blakeley.daawwnn</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>noah.woodfors</t>
+          <t>cstew05</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>seb_j_c17</t>
+          <t>sebastiannkeene</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>cobb_kuntz</t>
+          <t>davidkennnett</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>kristyault247</t>
+          <t>ryan._.vaughn</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>porter_hanson</t>
+          <t>bikinimadscientist</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>johnmartinpeltier</t>
+          <t>deekepka</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>perla.pingston</t>
+          <t>lrjb1846</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>wheygolden.retriever</t>
+          <t>alyssakreikemeier</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>katiebaugh686</t>
+          <t>f0xbites</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>kylie_757</t>
+          <t>graceestpeter</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>caroline_m12345</t>
+          <t>madisontessner</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>taylorkate19</t>
+          <t>daniel_cervanttes</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>reeseboydd</t>
+          <t>jenn.pirozzi</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ryantownhill</t>
+          <t>keatonhagedon</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>jenna.welle</t>
+          <t>heidi.wolter</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>elliott.gold</t>
+          <t>alexalemerise</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ava.birchmier</t>
+          <t>mmadisonmaee</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>cadden.andrew</t>
+          <t>angiekateyswara</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>jill.batttistta</t>
+          <t>jennifer1519</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>kaden.tsukamoto</t>
+          <t>kyliekwilliams</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>peacelovensunnydays</t>
+          <t>zeanna.alexis</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>taylor_perry_133</t>
+          <t>addymilota</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>korean_kaj_16</t>
+          <t>reed.damico</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>colbyschoenborn</t>
+          <t>cade.mock</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>cole_sexton2</t>
+          <t>ianatorawesome6</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>haase_05</t>
+          <t>laurenmarshh_</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>utahyl</t>
+          <t>briannabozych_</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>aonavausmc</t>
+          <t>_miaprz</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>averybrynnephillips</t>
+          <t>jack_riley_1</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>kylee.sewell</t>
+          <t>mix_melengok</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>lily_.autumn</t>
+          <t>keeganmcbride33</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>caydengravlin</t>
+          <t>gavinhoward.17</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>lucaso0309</t>
+          <t>aamanda_flores</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>dylan.melchior</t>
+          <t>brklyntumminia</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ethanb1016</t>
+          <t>margiemmcknight</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ryanmagnani</t>
+          <t>nataliavdz1</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sophieseyboldd</t>
+          <t>katehadraba</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>amy.marie.greer</t>
+          <t>sunniealber05</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>tateturner</t>
+          <t>eidan_fujii</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>emmadigenan</t>
+          <t>elaynaboeh</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>jfm341815</t>
+          <t>joshbreer</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>keeganmcbride33</t>
+          <t>finnolsen04</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>lukeoneill2</t>
+          <t>kate.mcd2005</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>carolinemendez_</t>
+          <t>nolasstewart</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>blake_mitchell053</t>
+          <t>autumnpia</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>drewmyerss</t>
+          <t>tyler.vonderahe</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>runge699</t>
+          <t>corinna.auerbach</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>bo.swenke</t>
+          <t>rylee_goode</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>evancavalierr</t>
+          <t>ruby.rolfe</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>joeymaz0</t>
+          <t>eschmitty0</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>chloe_taylor22195</t>
+          <t>a__niyaa</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>mark_gonzalez1234</t>
+          <t>ana_zay_mana12</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ryan_fischer05</t>
+          <t>joseph__nicholson</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>drakethompsonn</t>
+          <t>phoebe_curran27</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>nylabrunelli</t>
+          <t>_izzyfarrell</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>samhjohnson04</t>
+          <t>graciewiemann</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>delaneyagallagher</t>
+          <t>julia_0wens</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>cameron_n_ford</t>
+          <t>aaliyahjensen17</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>higgins.jp</t>
+          <t>aaron_iversonn</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>larrrue</t>
+          <t>cougarkarson</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>elliot.dresser</t>
+          <t>forrestpeloquin</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>lfagan04</t>
+          <t>rex_arnot</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>itskarin.h</t>
+          <t>celesteee_calvo</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>jessicaschlamkowitz</t>
+          <t>ac3.nathan</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>_gabriella_sm_</t>
+          <t>lakencoulson23</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>avery_hendries</t>
+          <t>carlycosbyy</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>stilesdichter</t>
+          <t>natalieruthford</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>logan_kobliska</t>
+          <t>thomas.lapine</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>jkswim1</t>
+          <t>aj_mcclary</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>_jacobsteinberg_</t>
+          <t>daragamii</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>alex.dav1dson</t>
+          <t>emmalucille__</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>rracette27</t>
+          <t>notsodav</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>kyler____m</t>
+          <t>alyssa.v.14</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>jackbunting_</t>
+          <t>ianlud8</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>jennldavis_</t>
+          <t>sam.allan_</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>kefaabakuki</t>
+          <t>correajodi</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>atoth04</t>
+          <t>gina.difede</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>oakley_cowboy_doodles</t>
+          <t>brookewelton</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>jakeambris</t>
+          <t>k3nton</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ella_whitney4</t>
+          <t>libby.prestonn</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>scarlett.hager</t>
+          <t>trevorvanornum</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>sophieggriffiin</t>
+          <t>suzanne.rannells</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>canyon.pebs</t>
+          <t>ella.sharrers</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>grace.dozer</t>
+          <t>jaden_.2._</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>huytrn.n</t>
+          <t>d.bakerr0</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>miaapetersen</t>
+          <t>shanepeterson__</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>eli_schmaltz</t>
+          <t>lilyespaarza</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>coristoutenburg</t>
+          <t>katjaa.marie</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>jackendler</t>
+          <t>buchanan1199</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>kyle_fehrenbach</t>
+          <t>aob.luca</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>joel.tucker__</t>
+          <t>marryhouston5</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>taylor.greemann</t>
+          <t>alyssa_gardarian</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>rilee.bryn18</t>
+          <t>kate_thoreson_</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>youngnicholas08</t>
+          <t>austinsims.b</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>owenmatherr</t>
+          <t>canyon.pebs</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>zackaryzaman</t>
+          <t>ivuofu</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>chase.muirbrook</t>
+          <t>siennakamalani</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>mac__richardson</t>
+          <t>kmalc19</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>dana_dvorak_</t>
+          <t>luis.sgccani</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>rubyjjameson</t>
+          <t>maya.krajicek</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>reina_bomberski</t>
+          <t>gmoney8971</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>emma.efg3</t>
+          <t>tommy_e_schmitt</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>jjackbenton</t>
+          <t>audrey.angold</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>paytonriske</t>
+          <t>nicholas.pardon</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>lukas.s0ch0r</t>
+          <t>liv.scharf</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>levi.iskin</t>
+          <t>ckim0629</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>imowentaylor</t>
+          <t>gavin.whi</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>_charliemcleod</t>
+          <t>p.e.yyyyy</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>sa.ge5330</t>
+          <t>koochieo</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>headhunter500</t>
+          <t>ssham_wow</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>madisonmurad</t>
+          <t>p_d_and_j</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>myliealexander</t>
+          <t>jaketsteiner</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>nickkalberer_</t>
+          <t>rylinsekas</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>couldbelucas</t>
+          <t>infecsean</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>emmavuckovic_</t>
+          <t>kadencullen_</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>maya.drayton_</t>
+          <t>hanakatie</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>joliee.peek</t>
+          <t>_emileejones</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>twetz</t>
+          <t>ryanmagnani</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>christian.t.howell</t>
+          <t>_tom_rasmussen</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>hannah._.hudson</t>
+          <t>drewmyerss</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>clharper</t>
+          <t>_brayden907</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>allieesalgado</t>
+          <t>zoemwallace</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>jack.felix_</t>
+          <t>laurenkadin</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sylvie_mcevers</t>
+          <t>hecticspoon</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>landon_santos</t>
+          <t>jacobmmendez</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>raunaqkap</t>
+          <t>_mmaxoxvurr_</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>lilylusch</t>
+          <t>adinadixon_</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>katieahl.1</t>
+          <t>violet.wolter</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>chancej_13</t>
+          <t>jake_ryan282</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>heidi.bertt</t>
+          <t>_vickytoria__</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>garrettatkins_</t>
+          <t>ahartigan111</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>mikeyboy5252</t>
+          <t>lukesganga</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ythan.houston</t>
+          <t>mr_kaushikk10</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>thomas._.boyle</t>
+          <t>bryan_marroquin05</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>jack_halllllll</t>
+          <t>hannahharveyy_</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>zac.rasnick</t>
+          <t>ant_miz_</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>b_porter04</t>
+          <t>_mirandareynolds</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>calvindornan</t>
+          <t>satya.redman</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>gabi0lmos</t>
+          <t>lieselsmid</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>lena.gardner04</t>
+          <t>gabekutner</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>rex_arnot</t>
+          <t>ellie.boye</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>laurenisnotlame</t>
+          <t>devonsnyderrr</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>chase_martin4</t>
+          <t>jacqueskhoriaty</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,10 +4118,1020 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
+          <t>mostafarigi085</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>zach_solio</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>sophieggriffiin</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>gabbymartino</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>wyattmorris0</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>emxa.es</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>megan_.herbert</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>jociellie</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>isa.mathers</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>jane.b0ck</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>michaelgeovjian</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>valentinagonzalez_.__</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>madeleinehove_</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>lucast.araujo</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>saadsden</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>gina.fiorentino</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>sam.hunterr</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>k_sharbrough</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>danielcarow05</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>abbeyyfquinn</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>carrielewis_1006</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>xwipa_wt.dj</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>liam.espiritu</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>chiara_272727</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>joliee.peek</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>little_cacti_guy</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>lilyy.hughes</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>small_lifter</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>milli_lun_a</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>simmy.marquez</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>kian_elansary</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>rmulholland_17</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>_kenziecline</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>chloevermette_</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ryan.somers14</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>makaylagatess</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>codycrandell</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>jack.tetley</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>lillian._._.paul</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>leb_lucas</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>leinatamoala</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>liamhunter_9</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>karinacomstock</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>noah_zucker</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ellarpeck</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>colin_kagan</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>grant.audet</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>mckinseyadams</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>natalielwood14</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>max_sumicad</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>emmett_young12</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>tinoroumpos</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>harlowhapgood</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>zclevin</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>nilsiguess2</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>autumne_1</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>jantonsera</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>sarahnarber1</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>cruslc</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>notjamesobrien</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>rileystarwalt</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>charlie.hyatttt</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>drewdog_159</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>katiedelich</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>elizabethmckinleyboyle</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>takara.bowman</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>hayden_garber9</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>jose_gito</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>alex.wright.05</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>knowledge_on_paper</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>gwenwheatland</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>torihutch_</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>isabella.widmor</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>nathan.dunfield</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>carolineegallagherr</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>brooklynn.garrison</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
           <t>chasemwatts</t>
         </is>
       </c>
-      <c r="B369" t="b">
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>nikielmeeks</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>lucaso0309</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>kayalaubach</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>jack_gimm</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>marielheinalaa</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>zaccardievan</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>anthony32rodriguez</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>maddi.morrison</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>sarash.ludington</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>elisestrickland_</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>coleluesebrink</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>marrisjoe69</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>kevin__leonard</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>nicochastenet</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>analisemullen</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>tannerparker_</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>eliza_holmgren</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>caliiidillonnn</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>thecharlieallen8</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>katebacherr</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>jack_behrens06</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>horwatt300</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>fw0990</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>kosten_kinder</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>evan.fornander</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
         <v>0</v>
       </c>
     </row>
